--- a/Mould_Database/Mould_Taper_DB.xlsx
+++ b/Mould_Database/Mould_Taper_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user01\Documents\GitHub\mould\Mould_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD6809C-224B-4FCD-BE15-AF65EA31ECD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE524A30-0E00-4CAC-BB62-BF4FA77A4939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="638" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="638" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
   </bookViews>
   <sheets>
     <sheet name="e00937" sheetId="19" r:id="rId1"/>
@@ -97,8 +97,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -164,10 +164,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -505,7 +505,9 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2675,5 +2677,6 @@
     <dataValidation imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:O1048576 A1:D1048576" xr:uid="{70387CA0-3AE1-4C17-86DC-E7259AE3215B}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>